--- a/data/trans_dic/P38A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P38A-Estudios-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.9246777848243971</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.9166882248156665</v>
+        <v>0.9166882248156663</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8851115010146076</v>
+        <v>0.8863807022308633</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.872344713133824</v>
+        <v>0.8704945747895547</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8528696670788933</v>
+        <v>0.8512220069384939</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9267116121170191</v>
+        <v>0.9291498786808119</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9310601149063664</v>
+        <v>0.9300321708613072</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9243450824796229</v>
+        <v>0.9237947981457751</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.915507329697984</v>
+        <v>0.916233160540414</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9120333839444351</v>
+        <v>0.9110247770760113</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8999398568421033</v>
+        <v>0.8992615639408905</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9263623190128378</v>
+        <v>0.9259867496456071</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.917221048494844</v>
+        <v>0.9168410248802518</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9093978670078144</v>
+        <v>0.9097947961455898</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9533113974945974</v>
+        <v>0.9553230991333123</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.958970694578808</v>
+        <v>0.9599437829535424</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9535207266198336</v>
+        <v>0.9539448342311114</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9390562986589518</v>
+        <v>0.9381892170783328</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9379890712345321</v>
+        <v>0.9361619824510397</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9306625240880178</v>
+        <v>0.9327409599286016</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.8790043137470801</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.8572702961833825</v>
+        <v>0.8572702961833822</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.8373017976543536</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7972249185527596</v>
+        <v>0.7966046345349934</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7912591830847525</v>
+        <v>0.7935808550730781</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7696489740233328</v>
+        <v>0.771048155342915</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8482565060491233</v>
+        <v>0.8476005807185989</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8635027707765139</v>
+        <v>0.8653946796444374</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8400428382047752</v>
+        <v>0.8405729334541919</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.824549334618915</v>
+        <v>0.8250508483767638</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8307480247237184</v>
+        <v>0.8326667662661003</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8108953658075787</v>
+        <v>0.8102017077356376</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8317448496697885</v>
+        <v>0.8314077446898585</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8263310321391075</v>
+        <v>0.8296572419302053</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8148114162228931</v>
+        <v>0.8149147522301827</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8801358425992942</v>
+        <v>0.8792308912943123</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8927528272648565</v>
+        <v>0.893279973115687</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8723835397038787</v>
+        <v>0.8719798274756848</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8498905038240669</v>
+        <v>0.8486566901178163</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8545807583139929</v>
+        <v>0.8551168595605131</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8395938592708772</v>
+        <v>0.8375203392330866</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.8447102884284217</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8846464318191835</v>
+        <v>0.8846464318191833</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.8918246038593417</v>
@@ -882,7 +882,7 @@
         <v>0.8631980104347304</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.8944172651937529</v>
+        <v>0.8944172651937525</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.865753663989365</v>
+        <v>0.8691667951398008</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.812007716334034</v>
+        <v>0.8108536538063966</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8582538557987145</v>
+        <v>0.8556705658837552</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8583833299834561</v>
+        <v>0.8586748094962333</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8501018123673211</v>
+        <v>0.8536031112812962</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8814602704927198</v>
+        <v>0.8808949969435549</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8728636087283914</v>
+        <v>0.8747508343102701</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8426479552562481</v>
+        <v>0.8400160749212818</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8749187687584271</v>
+        <v>0.8764136977197746</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9248297778153365</v>
+        <v>0.9261549148454277</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8755245313727545</v>
+        <v>0.8774268597898165</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9091746289258971</v>
+        <v>0.9069448808193037</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9189816913271223</v>
+        <v>0.9220938451060963</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9062214408007065</v>
+        <v>0.9062038282404438</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9236957460819578</v>
+        <v>0.9236573575494016</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9154615033901619</v>
+        <v>0.9153419659780665</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8846868058730439</v>
+        <v>0.8826889737575521</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.910067412840027</v>
+        <v>0.9107384777113613</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.8355308563742454</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8273622747046504</v>
+        <v>0.8273622747046503</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.8965364230818689</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8390636497361667</v>
+        <v>0.8403775164844971</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8211817443912068</v>
+        <v>0.8209490931840057</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8095970076084367</v>
+        <v>0.809332331916092</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8857902688832195</v>
+        <v>0.8851789894650846</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8880956656008626</v>
+        <v>0.887374899321839</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.873405566339436</v>
+        <v>0.8723325567022298</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8665470103556329</v>
+        <v>0.8664855795979677</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.858967976049657</v>
+        <v>0.8589625162898005</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8468949618368258</v>
+        <v>0.8481643388390764</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8652332329383553</v>
+        <v>0.8649932203397124</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8486711207634374</v>
+        <v>0.8485542900349229</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8427693616739682</v>
+        <v>0.842817482300683</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9063612929862747</v>
+        <v>0.906664564734702</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9075184291205494</v>
+        <v>0.9075008706194314</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8952713253682536</v>
+        <v>0.8957343522353759</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8835514691210417</v>
+        <v>0.8826844456949693</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8750171541846781</v>
+        <v>0.8753587160813282</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8666378498160281</v>
+        <v>0.8662770295755226</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>854341</v>
+        <v>855566</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>656261</v>
+        <v>654870</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>493410</v>
+        <v>492457</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1234266</v>
+        <v>1237513</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>925275</v>
+        <v>924254</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>759847</v>
+        <v>759394</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2103023</v>
+        <v>2104690</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1592486</v>
+        <v>1590725</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1260426</v>
+        <v>1259476</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>894157</v>
+        <v>893795</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>690022</v>
+        <v>689736</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>526113</v>
+        <v>526343</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>1269694</v>
+        <v>1272373</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>953013</v>
+        <v>953980</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>783830</v>
+        <v>784179</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>2157117</v>
+        <v>2155126</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1637807</v>
+        <v>1634617</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1303455</v>
+        <v>1306366</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1558399</v>
+        <v>1557187</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1628092</v>
+        <v>1632869</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1716753</v>
+        <v>1719874</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1485463</v>
+        <v>1484314</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1710882</v>
+        <v>1714631</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1824062</v>
+        <v>1825213</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3055759</v>
+        <v>3057618</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3355328</v>
+        <v>3363078</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3569528</v>
+        <v>3566475</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1625878</v>
+        <v>1625219</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1700255</v>
+        <v>1707099</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1817491</v>
+        <v>1817721</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1541289</v>
+        <v>1539705</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1768836</v>
+        <v>1769881</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1894287</v>
+        <v>1893410</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>3149673</v>
+        <v>3145100</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>3451587</v>
+        <v>3453752</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>3695858</v>
+        <v>3686730</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>413189</v>
+        <v>414818</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>440990</v>
+        <v>440363</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>610722</v>
+        <v>608884</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>392783</v>
+        <v>392917</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>465081</v>
+        <v>466997</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>647765</v>
+        <v>647349</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>815991</v>
+        <v>817756</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>918634</v>
+        <v>915765</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1265539</v>
+        <v>1267701</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>441383</v>
+        <v>442016</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>475485</v>
+        <v>476518</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>646957</v>
+        <v>645370</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>420512</v>
+        <v>421936</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>495784</v>
+        <v>495774</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>678803</v>
+        <v>678775</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>855814</v>
+        <v>855702</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>964463</v>
+        <v>962285</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1316380</v>
+        <v>1317350</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2850530</v>
+        <v>2854994</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2753404</v>
+        <v>2752624</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2850334</v>
+        <v>2849403</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3136279</v>
+        <v>3134114</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3128054</v>
+        <v>3125515</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3256324</v>
+        <v>3252324</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6012043</v>
+        <v>6011617</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5905562</v>
+        <v>5905524</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>6139133</v>
+        <v>6148335</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2939435</v>
+        <v>2938620</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2845576</v>
+        <v>2845184</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2967124</v>
+        <v>2967293</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>3209114</v>
+        <v>3210187</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>3196465</v>
+        <v>3196403</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>3337846</v>
+        <v>3339573</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>6130019</v>
+        <v>6124004</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>6015903</v>
+        <v>6018251</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>6282249</v>
+        <v>6279634</v>
       </c>
     </row>
     <row r="20">
